--- a/data/studentTemp.xlsx
+++ b/data/studentTemp.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM3"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,75 +454,90 @@
         <v>technicalWritingApproved</v>
       </c>
       <c r="Y1" t="str">
+        <v>proceedToPhdFormSubmitted</v>
+      </c>
+      <c r="Z1" t="str">
         <v>backgroundPrepWorksheetApproved</v>
       </c>
-      <c r="Z1" t="str">
+      <c r="AA1" t="str">
         <v>programOfStudyApproved</v>
       </c>
-      <c r="AA1" t="str">
+      <c r="AB1" t="str">
         <v>researchPlanningMeeting</v>
       </c>
-      <c r="AB1" t="str">
+      <c r="AC1" t="str">
         <v>programProductRequirement</v>
       </c>
-      <c r="AC1" t="str">
+      <c r="AD1" t="str">
         <v>committeeCompApproved</v>
       </c>
-      <c r="AD1" t="str">
+      <c r="AE1" t="str">
         <v>phdProposalApproved</v>
       </c>
-      <c r="AE1" t="str">
+      <c r="AF1" t="str">
         <v>phdAwarded</v>
       </c>
-      <c r="AF1" t="str">
+      <c r="AG1" t="str">
         <v>oralExamPassed</v>
       </c>
-      <c r="AG1" t="str">
+      <c r="AH1" t="str">
         <v>dissertationDefencePassed</v>
       </c>
-      <c r="AH1" t="str">
+      <c r="AI1" t="str">
         <v>dissertationSubmitted</v>
       </c>
-      <c r="AI1" t="str">
+      <c r="AJ1" t="str">
         <v>jobHistory</v>
       </c>
-      <c r="AJ1" t="str">
+      <c r="AK1" t="str">
         <v>semesterStarted</v>
       </c>
-      <c r="AK1" t="str">
+      <c r="AL1" t="str">
         <v>advisor</v>
       </c>
-      <c r="AL1" t="str">
+      <c r="AM1" t="str">
+        <v>otherAdvisor</v>
+      </c>
+      <c r="AN1" t="str">
+        <v>researchAdvisor</v>
+      </c>
+      <c r="AO1" t="str">
+        <v>otherResearchAdvisor</v>
+      </c>
+      <c r="AP1" t="str">
         <v>grades</v>
       </c>
-      <c r="AM1" t="str">
+      <c r="AQ1" t="str">
         <v>courseHistory</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>jasonjin</v>
+        <v>hmbodnar</v>
       </c>
       <c r="B2" t="str">
-        <v>000000</v>
+        <v>iddd</v>
       </c>
       <c r="C2" t="str">
-        <v>jjin1771@gmail.com</v>
+        <v>hannahbodnar.17+student@gmail.com</v>
       </c>
       <c r="D2" t="str">
-        <v>jason</v>
+        <v>hannah</v>
       </c>
       <c r="E2" t="str">
-        <v>jin</v>
+        <v>bodnar</v>
       </c>
       <c r="F2" t="str">
         <v>None</v>
       </c>
+      <c r="G2">
+        <v>730171699</v>
+      </c>
       <c r="H2" t="str">
-        <v>Active</v>
+        <v>Graduated</v>
       </c>
       <c r="J2" t="str">
-        <v>MALE</v>
+        <v>OTHER</v>
       </c>
       <c r="K2" t="str">
         <v>OTHER</v>
@@ -533,51 +548,301 @@
       <c r="P2" t="str">
         <v>MASTERS</v>
       </c>
+      <c r="Q2">
+        <v>30</v>
+      </c>
       <c r="S2" t="str">
-        <v>NOT GUARANTEED</v>
+        <v>PROBATION</v>
+      </c>
+      <c r="AL2" t="str">
+        <v>person, person</v>
+      </c>
+      <c r="AN2" t="str">
+        <v>test, test</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>jasonjin</v>
+        <v>fakeonyen</v>
       </c>
       <c r="B3" t="str">
-        <v>000000</v>
+        <v>fakecsid</v>
       </c>
       <c r="C3" t="str">
-        <v>jjin1771@gmail.com</v>
+        <v>fakeEmail@fake.com</v>
       </c>
       <c r="D3" t="str">
-        <v>jason</v>
+        <v>fake</v>
       </c>
       <c r="E3" t="str">
-        <v>jin</v>
+        <v>fake</v>
       </c>
       <c r="F3" t="str">
-        <v>None</v>
+        <v>she, her</v>
+      </c>
+      <c r="G3">
+        <v>949949949</v>
       </c>
       <c r="H3" t="str">
-        <v>Active</v>
+        <v>Graduated</v>
+      </c>
+      <c r="I3" t="str">
+        <v>fake</v>
       </c>
       <c r="J3" t="str">
-        <v>OTHER</v>
+        <v>FEMALE</v>
       </c>
       <c r="K3" t="str">
         <v>OTHER</v>
       </c>
       <c r="L3" t="str">
+        <v>YES</v>
+      </c>
+      <c r="M3" t="str">
+        <v>help</v>
+      </c>
+      <c r="N3" t="str">
+        <v>Systems</v>
+      </c>
+      <c r="O3" t="str">
         <v>NO</v>
       </c>
       <c r="P3" t="str">
         <v>MASTERS</v>
       </c>
+      <c r="Q3">
+        <v>20</v>
+      </c>
+      <c r="R3" t="b">
+        <v>1</v>
+      </c>
       <c r="S3" t="str">
+        <v>GUARANTEED</v>
+      </c>
+      <c r="T3">
+        <v>99</v>
+      </c>
+      <c r="U3" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="V3" t="str">
+        <v>2019-02-01</v>
+      </c>
+      <c r="W3" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="X3" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="Y3" t="str">
+        <v/>
+      </c>
+      <c r="Z3" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="AA3" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="AB3" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="AC3" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="AD3" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="AE3" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="AF3" t="str">
+        <v>2019-02-01</v>
+      </c>
+      <c r="AG3" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="AH3" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="AI3" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="AK3" t="str">
+        <v>FA 2019</v>
+      </c>
+      <c r="AL3" t="str">
+        <v>test, test</v>
+      </c>
+      <c r="AN3" t="str">
+        <v>test, test</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>new</v>
+      </c>
+      <c r="B4" t="str">
+        <v>newnew</v>
+      </c>
+      <c r="C4" t="str">
+        <v>new@gmail.com</v>
+      </c>
+      <c r="D4" t="str">
+        <v>new</v>
+      </c>
+      <c r="E4" t="str">
+        <v>student</v>
+      </c>
+      <c r="F4" t="str">
+        <v>None</v>
+      </c>
+      <c r="G4">
+        <v>111111111</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Active</v>
+      </c>
+      <c r="J4" t="str">
+        <v>OTHER</v>
+      </c>
+      <c r="K4" t="str">
+        <v>OTHER</v>
+      </c>
+      <c r="L4" t="str">
+        <v>NO</v>
+      </c>
+      <c r="P4" t="str">
+        <v>MASTERS</v>
+      </c>
+      <c r="R4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" t="str">
         <v>NOT GUARANTEED</v>
+      </c>
+      <c r="AL4" t="str">
+        <v>test, test</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>fake</v>
+      </c>
+      <c r="B5" t="str">
+        <v>fake</v>
+      </c>
+      <c r="C5" t="str">
+        <v>fake@gmail.com</v>
+      </c>
+      <c r="D5" t="str">
+        <v>test</v>
+      </c>
+      <c r="E5" t="str">
+        <v>upload</v>
+      </c>
+      <c r="F5" t="str">
+        <v>she, her</v>
+      </c>
+      <c r="G5">
+        <v>2828282</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Graduated</v>
+      </c>
+      <c r="I5" t="str">
+        <v>fake</v>
+      </c>
+      <c r="J5" t="str">
+        <v>FEMALE</v>
+      </c>
+      <c r="K5" t="str">
+        <v>OTHER</v>
+      </c>
+      <c r="L5" t="str">
+        <v>YES</v>
+      </c>
+      <c r="M5" t="str">
+        <v>help</v>
+      </c>
+      <c r="N5" t="str">
+        <v>Systems</v>
+      </c>
+      <c r="O5" t="str">
+        <v>NO</v>
+      </c>
+      <c r="P5" t="str">
+        <v>MASTERS</v>
+      </c>
+      <c r="Q5">
+        <v>20</v>
+      </c>
+      <c r="R5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" t="str">
+        <v>GUARANTEED</v>
+      </c>
+      <c r="T5">
+        <v>99</v>
+      </c>
+      <c r="U5" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="V5" t="str">
+        <v>2019-02-01</v>
+      </c>
+      <c r="W5" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="X5" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="Y5" t="str">
+        <v/>
+      </c>
+      <c r="Z5" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="AA5" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="AB5" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="AC5" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="AD5" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="AE5" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="AF5" t="str">
+        <v>2019-02-01</v>
+      </c>
+      <c r="AG5" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="AH5" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="AI5" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="AK5" t="str">
+        <v>FA 2019</v>
+      </c>
+      <c r="AM5" t="str">
+        <v>test, test</v>
+      </c>
+      <c r="AN5" t="str">
+        <v>Pozefsky, Diane</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AM3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AQ5"/>
   </ignoredErrors>
 </worksheet>
 </file>